--- a/2022/Realme/Others/RSC Information All/All RSC Bank Information.xlsx
+++ b/2022/Realme/Others/RSC Information All/All RSC Bank Information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Realme\Others\RSC Information All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\Others\RSC Information All\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -223,7 +223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -414,7 +414,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,15 +463,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,7 +766,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
